--- a/Datasets/UCD_EngArch_Path_Electrical_UG_Modules.xlsx
+++ b/Datasets/UCD_EngArch_Path_Electrical_UG_Modules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\SATLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13730BA4-94D7-407E-87B6-988D4ED17F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F222C90F-5B33-4BAB-9ED0-D97A1FAF3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{C7146B4A-4439-46E0-B60E-DB05B9DBCCC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470AD8BE-D0F1-4863-8083-BF0D6224CD04}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
